--- a/simpo_resource/source/_static/template_file/DataSet.xlsx
+++ b/simpo_resource/source/_static/template_file/DataSet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23812" windowHeight="10813" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="22512" windowHeight="9852" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="18" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
   <si>
     <t>Time</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Into</t>
+  </si>
+  <si>
+    <t>Section</t>
   </si>
   <si>
     <t>Q_in+Q_r</t>
@@ -157,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -207,7 +210,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,20 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -243,44 +331,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,72 +356,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -411,31 +414,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,19 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,13 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,13 +528,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,97 +588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,16 +615,58 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,20 +686,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,21 +716,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -699,200 +726,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,7 +1077,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1098,9 +1101,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1124,7 +1127,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1177,7 +1180,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1202,7 +1205,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1220,15 +1223,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88135593220339" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.9745762711864" customWidth="true"/>
-    <col min="2" max="2" width="14.3050847457627" customWidth="true"/>
-    <col min="3" max="3" width="13.6440677966102" customWidth="true"/>
-    <col min="4" max="4" width="19.635593220339" customWidth="true"/>
+    <col min="1" max="1" width="15.975" customWidth="1"/>
+    <col min="2" max="2" width="14.3083333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.6416666666667" customWidth="1"/>
+    <col min="4" max="4" width="19.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.25" spans="1:3">
+    <row r="1" ht="23.4" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="22.25" spans="1:3">
+    <row r="2" ht="23.4" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,15 +1268,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88135593220339" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.4152542372881" customWidth="true"/>
-    <col min="2" max="2" width="14.3050847457627" customWidth="true"/>
-    <col min="3" max="3" width="27.7372881355932" customWidth="true"/>
-    <col min="4" max="4" width="19.635593220339" customWidth="true"/>
+    <col min="1" max="1" width="15.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.3083333333333" customWidth="1"/>
+    <col min="3" max="3" width="27.7333333333333" customWidth="1"/>
+    <col min="4" max="4" width="19.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.25" spans="1:4">
+    <row r="1" ht="23.4" spans="1:4">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="22.25" spans="1:4">
+    <row r="2" ht="23.4" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1299,7 +1302,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" ht="22.25" spans="1:4">
+    <row r="3" ht="23.4" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1309,7 +1312,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" ht="22.25" spans="1:4">
+    <row r="4" ht="23.4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1319,7 +1322,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" ht="22.25" spans="1:4">
+    <row r="5" ht="23.4" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +1332,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" ht="22.25" spans="1:4">
+    <row r="6" ht="23.4" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1339,7 +1342,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" ht="22.25" spans="1:4">
+    <row r="7" ht="23.4" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1366,17 +1369,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.91525423728813" style="1" customWidth="true"/>
-    <col min="2" max="2" width="21.0254237288136" style="1" customWidth="true"/>
-    <col min="3" max="3" width="20.5508474576271" style="1" customWidth="true"/>
-    <col min="4" max="4" width="18.5762711864407" style="1" customWidth="true"/>
-    <col min="5" max="5" width="25.0254237288136" style="1" customWidth="true"/>
-    <col min="6" max="6" width="20.7372881355932" style="1" customWidth="true"/>
-    <col min="7" max="1020" width="14.6864406779661" style="1"/>
+    <col min="1" max="1" width="9.91666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.025" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.55" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.575" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.025" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7333333333333" style="1" customWidth="1"/>
+    <col min="7" max="1020" width="14.6833333333333" style="1"/>
     <col min="1021" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.25" spans="1:6">
+    <row r="1" ht="23.4" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="22.25" spans="1:6">
+    <row r="2" ht="23.4" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -1414,7 +1417,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="22.25" spans="1:6">
+    <row r="3" ht="23.4" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1439,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
@@ -1449,23 +1452,23 @@
   <sheetPr/>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.6101694915254" style="1"/>
-    <col min="2" max="2" width="19.8305084745763" style="1"/>
-    <col min="3" max="5" width="21.7033898305085" style="1"/>
-    <col min="6" max="7" width="17.2372881355932" style="1" customWidth="true"/>
-    <col min="8" max="13" width="23.2966101694915" style="1" customWidth="true"/>
-    <col min="14" max="19" width="22.635593220339" style="1" customWidth="true"/>
-    <col min="20" max="935" width="14.6864406779661" style="1"/>
+    <col min="1" max="1" width="18.6083333333333" style="1"/>
+    <col min="2" max="2" width="19.8333333333333" style="1"/>
+    <col min="3" max="5" width="21.7" style="1"/>
+    <col min="6" max="7" width="17.2333333333333" style="1" customWidth="1"/>
+    <col min="8" max="13" width="23.3" style="1" customWidth="1"/>
+    <col min="14" max="19" width="22.6333333333333" style="1" customWidth="1"/>
+    <col min="20" max="935" width="14.6833333333333" style="1"/>
     <col min="936" max="16368" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.25" spans="1:19">
+    <row r="1" ht="23.4" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="22.25" spans="1:19">
+    <row r="2" ht="23.4" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="22.25" spans="1:19">
+    <row r="3" ht="23.4" spans="1:19">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" ht="22.25" spans="1:19">
+    <row r="4" ht="23.4" spans="1:19">
       <c r="A4" s="7">
         <v>10</v>
       </c>
@@ -1665,7 +1668,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
     </row>
-    <row r="5" ht="22.25" spans="1:19">
+    <row r="5" ht="23.4" spans="1:19">
       <c r="A5" s="7">
         <v>20</v>
       </c>
@@ -1688,7 +1691,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" ht="22.25" spans="1:19">
+    <row r="6" ht="23.4" spans="1:19">
       <c r="A6" s="7">
         <v>30</v>
       </c>
@@ -1711,7 +1714,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" ht="22.25" spans="1:19">
+    <row r="7" ht="23.4" spans="1:19">
       <c r="A7" s="7">
         <v>40</v>
       </c>
@@ -1734,7 +1737,7 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" ht="22.25" spans="1:19">
+    <row r="8" ht="23.4" spans="1:19">
       <c r="A8" s="7">
         <v>50</v>
       </c>
@@ -1757,7 +1760,7 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" ht="22.25" spans="1:19">
+    <row r="9" ht="23.4" spans="1:19">
       <c r="A9" s="7">
         <v>60</v>
       </c>
@@ -1780,7 +1783,7 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" ht="22.25" spans="1:19">
+    <row r="10" ht="23.4" spans="1:19">
       <c r="A10" s="7">
         <v>70</v>
       </c>
@@ -1803,7 +1806,7 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" ht="22.25" spans="1:19">
+    <row r="11" ht="23.4" spans="1:19">
       <c r="A11" s="7">
         <v>80</v>
       </c>
@@ -1826,7 +1829,7 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" ht="22.25" spans="1:19">
+    <row r="12" ht="23.4" spans="1:19">
       <c r="A12" s="7">
         <v>90</v>
       </c>
@@ -1849,7 +1852,7 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" ht="22.25" spans="1:19">
+    <row r="13" ht="23.4" spans="1:19">
       <c r="A13" s="7">
         <v>100</v>
       </c>
@@ -1872,7 +1875,7 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" ht="22.25" spans="1:19">
+    <row r="14" ht="23.4" spans="1:19">
       <c r="A14" s="7">
         <v>110</v>
       </c>
@@ -1895,7 +1898,7 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" ht="22.25" spans="1:19">
+    <row r="15" ht="23.4" spans="1:19">
       <c r="A15" s="7">
         <v>120</v>
       </c>
@@ -1918,7 +1921,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" ht="22.25" spans="1:19">
+    <row r="16" ht="23.4" spans="1:19">
       <c r="A16" s="7">
         <v>130</v>
       </c>
@@ -1941,7 +1944,7 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" ht="22.25" spans="1:19">
+    <row r="17" ht="23.4" spans="1:19">
       <c r="A17" s="7">
         <v>140</v>
       </c>
@@ -1964,7 +1967,7 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" ht="22.25" spans="1:19">
+    <row r="18" ht="23.4" spans="1:19">
       <c r="A18" s="7">
         <v>150</v>
       </c>
@@ -1987,7 +1990,7 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" ht="22.25" spans="1:19">
+    <row r="19" ht="23.4" spans="1:19">
       <c r="A19" s="7">
         <v>160</v>
       </c>
@@ -2010,7 +2013,7 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" ht="22.25" spans="1:19">
+    <row r="20" ht="23.4" spans="1:19">
       <c r="A20" s="7">
         <v>170</v>
       </c>
@@ -2033,7 +2036,7 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" ht="22.25" spans="1:19">
+    <row r="21" ht="23.4" spans="1:19">
       <c r="A21" s="7">
         <v>180</v>
       </c>
@@ -2056,7 +2059,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" ht="22.25" spans="1:19">
+    <row r="22" ht="23.4" spans="1:19">
       <c r="A22" s="7">
         <v>190</v>
       </c>
@@ -2079,7 +2082,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" ht="22.25" spans="1:19">
+    <row r="23" ht="23.4" spans="1:19">
       <c r="A23" s="7">
         <v>200</v>
       </c>
@@ -2104,7 +2107,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
@@ -2123,16 +2126,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.0762711864407" style="1" customWidth="true"/>
-    <col min="2" max="2" width="18.0338983050847" style="1" customWidth="true"/>
-    <col min="3" max="4" width="14.2457627118644" style="1" customWidth="true"/>
-    <col min="5" max="5" width="12.5423728813559" style="1" customWidth="true"/>
-    <col min="6" max="7" width="14.2372881355932" style="1"/>
-    <col min="8" max="890" width="14.6864406779661" style="1"/>
+    <col min="1" max="1" width="21.075" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.0333333333333" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.2416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5416666666667" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.2333333333333" style="1"/>
+    <col min="8" max="890" width="14.6833333333333" style="1"/>
     <col min="891" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.25" spans="1:7">
+    <row r="1" ht="23.4" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" ht="22.25" spans="1:7">
+    <row r="2" ht="23.4" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="22.25" spans="1:7">
+    <row r="3" ht="23.4" spans="1:7">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -2203,7 +2206,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
@@ -2222,10 +2225,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1024" width="10.9830508474576"/>
+    <col min="1" max="1024" width="10.9833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.25" spans="1:6">
+    <row r="1" ht="23.4" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="22.25" spans="1:6">
+    <row r="2" ht="23.4" spans="1:6">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="22.25" spans="1:6">
+    <row r="3" ht="23.4" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2275,7 +2278,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
@@ -2286,22 +2289,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.6525423728814" style="1" customWidth="true"/>
-    <col min="2" max="2" width="21.5338983050847" style="1" customWidth="true"/>
-    <col min="3" max="3" width="18.8983050847458" style="1" customWidth="true"/>
-    <col min="4" max="1025" width="9.41525423728813" style="1"/>
+    <col min="1" max="1" width="22.65" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
+    <col min="5" max="1025" width="9.41666666666667" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.25" spans="1:3">
+    <row r="1" ht="23.4" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -2311,8 +2315,11 @@
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" ht="22.25" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" ht="23.4" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -2322,8 +2329,9 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" ht="22.25" spans="1:3">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" ht="23.4" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -2333,19 +2341,21 @@
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" ht="22.25" spans="1:3">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" ht="23.4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" ht="22.25" spans="1:3">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" ht="23.4" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -2353,23 +2363,25 @@
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" ht="22.25" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" ht="23.4" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>

--- a/simpo_resource/source/_static/template_file/DataSet.xlsx
+++ b/simpo_resource/source/_static/template_file/DataSet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22512" windowHeight="9852" tabRatio="993" activeTab="6"/>
+    <workbookView windowWidth="22512" windowHeight="8508" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="18" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="43">
   <si>
     <t>Time</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>Into</t>
-  </si>
-  <si>
-    <t>Section</t>
   </si>
   <si>
     <t>Q_in+Q_r</t>
@@ -160,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -210,6 +207,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -217,14 +222,88 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,34 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -274,82 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,6 +338,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -414,13 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,25 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,55 +459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,25 +483,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,49 +585,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,33 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -667,6 +637,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,17 +665,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,6 +689,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -726,139 +714,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2289,23 +2286,22 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.65" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
-    <col min="5" max="1025" width="9.41666666666667" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="4" max="1024" width="9.41666666666667" style="1"/>
+    <col min="1025" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.4" spans="1:4">
+    <row r="1" ht="23.4" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -2315,11 +2311,8 @@
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" ht="23.4" spans="1:4">
+    </row>
+    <row r="2" ht="23.4" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -2329,9 +2322,8 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" ht="23.4" spans="1:4">
+    </row>
+    <row r="3" ht="23.4" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -2341,21 +2333,19 @@
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" ht="23.4" spans="1:4">
+    </row>
+    <row r="4" ht="23.4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" ht="23.4" spans="1:4">
+    </row>
+    <row r="5" ht="23.4" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -2363,21 +2353,19 @@
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" ht="23.4" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="23.4" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
